--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2860728.921192759</v>
+        <v>2964908.555643832</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>328.49001099408</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103746</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.5968754185096</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>166.3516656678848</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>77.69702543883761</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15.38559094376137</v>
+        <v>69.13498501318928</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>37.09845285659713</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>81.46084344268498</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>328.9725371167045</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.9601371840607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>180.8399754080304</v>
+        <v>262.2764898409463</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1421,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>60.19827945150387</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774094323</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.3722917337068</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>263.7048265736554</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.84948075323985</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>99.65140663107616</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>66.2562870115476</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.1838954824118</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>34.03048557919066</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>45.66054613217651</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2606,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>126.9263824507421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>191.2560787872424</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>15.09910835322229</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3086,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>122.8327676896534</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>201.1906419534422</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>68.64373283592688</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>68.17501931583776</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>244.8607949506171</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>93.59472601529512</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>44.75138076689395</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>169.3382687475389</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943748</v>
+        <v>1914.669427940023</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943748</v>
+        <v>1545.706910999611</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943748</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939505</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296683</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052365</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609168</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136263</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520485</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2678.274518176914</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2678.274518176914</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2304.808759915834</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1914.669427940023</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2640.167115151077</v>
+        <v>531.7821255545682</v>
       </c>
       <c r="C4" t="n">
-        <v>2471.23093222317</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D4" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.23093222317</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962276</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596502</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="V4" t="n">
-        <v>3157.573836086055</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="W4" t="n">
-        <v>2868.156666049094</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="X4" t="n">
-        <v>2640.167115151077</v>
+        <v>752.5747046980983</v>
       </c>
       <c r="Y4" t="n">
-        <v>2640.167115151077</v>
+        <v>531.7821255545682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1215.758282883553</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>846.7957659431409</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296685</v>
@@ -4592,25 +4594,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3310.064820655875</v>
+        <v>3255.772503414029</v>
       </c>
       <c r="T5" t="n">
-        <v>3104.087073040097</v>
+        <v>3049.794755798251</v>
       </c>
       <c r="U5" t="n">
-        <v>3104.087073040097</v>
+        <v>3049.794755798251</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.087073040097</v>
+        <v>2718.73186845468</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.318417769983</v>
+        <v>2365.963213184566</v>
       </c>
       <c r="X5" t="n">
-        <v>2377.852659508903</v>
+        <v>1992.497454923486</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1602.358122947674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4622,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
         <v>765.1517452158129</v>
@@ -4656,10 +4658,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218339</v>
+        <v>418.5780852590083</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>418.5780852590083</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>418.5780852590083</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>418.5780852590083</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>271.6881377610979</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>103.9853011358169</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218339</v>
@@ -4723,52 +4725,52 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757121</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="U7" t="n">
-        <v>838.6033255730482</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="V7" t="n">
-        <v>583.9188373671614</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302007</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218339</v>
+        <v>639.3706644025384</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218339</v>
+        <v>418.5780852590083</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1564.446462565634</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2884.252265792694</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.3899067494191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C10" t="n">
-        <v>479.4537238215122</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D10" t="n">
-        <v>479.4537238215122</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757124</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757124</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W10" t="n">
-        <v>648.3899067494191</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="X10" t="n">
-        <v>648.3899067494191</v>
+        <v>434.1946430736239</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.3899067494191</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5057,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5066,25 +5068,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.5373202159263</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159263</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5473,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>939.3433030602412</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>718.550723916711</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.285292201466</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.210065545664</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.525577339777</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.108407302817</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302817</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>4158.121351333892</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>3160.179968880559</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>2991.243785952652</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>2841.127146540317</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>2693.214052957923</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>2546.324105460013</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>2546.324105460013</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>2404.612274302211</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995193</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789307</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3790.610563752346</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>3562.621012854329</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>3341.828433710799</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>3164.65917438833</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>3792.257137942937</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.308687575531</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277355</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>3825.693586981174</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>3597.704036083157</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>3376.911456939627</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,22 +6247,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6485,28 +6487,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921482</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6655,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1418.449741049605</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6782,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>990.5373202159259</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>821.601137288019</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1774.238209850466</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.329899359456</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.5373202159259</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,40 +6925,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,7 +6970,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7011,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7366,16 +7368,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1508.097421288549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1218.680251251588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
         <v>2129.438138565707</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2962.420792735044</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C43" t="n">
-        <v>2793.484609807137</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>2793.484609807137</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>2793.484609807137</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4645.629737482539</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4426.02827250548</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4136.953045849678</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3882.268557643792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3592.851387606831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3364.861836708813</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3144.069257565283</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,37 +7663,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282754</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458823</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7831,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>107.048541647124</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>216.1389255780005</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.45968844823051</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>22.81817176293561</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>125.5559695740484</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>186.533067758168</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>15.00954930701793</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>145.8014946027466</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>40.32043864788577</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>94.92839560200173</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>271.4238899833687</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>25.78270532855896</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>217.5407415533173</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>72.11969353038613</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7.276848373210868</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73.65209508333271</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>136.2749052347506</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26071,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>117.1847295890521</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365052</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.609736506</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.34074832405895e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405272</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189189</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26439,16 +26441,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613932</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083974</v>
+        <v>-832389.9260083972</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191952</v>
+        <v>496354.8197191948</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191943</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333505</v>
+        <v>243493.0341333516</v>
       </c>
       <c r="F6" t="n">
+        <v>568905.4959407069</v>
+      </c>
+      <c r="G6" t="n">
         <v>568905.4959407067</v>
       </c>
-      <c r="G6" t="n">
-        <v>568905.4959407062</v>
-      </c>
       <c r="H6" t="n">
-        <v>568905.4959407068</v>
+        <v>568905.4959407069</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407065</v>
+        <v>568905.4959407069</v>
       </c>
       <c r="J6" t="n">
         <v>351374.2935434293</v>
       </c>
       <c r="K6" t="n">
-        <v>568905.4959407067</v>
+        <v>568905.4959407061</v>
       </c>
       <c r="L6" t="n">
         <v>568905.4959407066</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.4680051946</v>
+        <v>483850.468005195</v>
       </c>
       <c r="N6" t="n">
+        <v>568905.4959407067</v>
+      </c>
+      <c r="O6" t="n">
         <v>568905.4959407065</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>568905.4959407066</v>
-      </c>
-      <c r="P6" t="n">
-        <v>568905.4959407067</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402292</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>26.19303062660293</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112243</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27473,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>85.78597765594321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>148.0126299501995</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>93.80217084441448</v>
+        <v>40.0527767749866</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>107.6565620577236</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983812</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>204.7509947629279</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>52.95783295555725</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.2778014719929</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28013,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>105.6830229285606</v>
+        <v>24.24650849564472</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29509,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.818470993273997e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,37 +31357,37 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
@@ -31394,7 +31396,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31443,16 +31445,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
         <v>300.7247737883114</v>
@@ -31461,19 +31463,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,19 +32074,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>216.0947523943933</v>
       </c>
       <c r="M15" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>504.2882996232035</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>436.4492970000068</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32788,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>246.9596973201446</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>349.7190218511045</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,10 +33031,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043748</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>502.2268148619681</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33430,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>459.1396705889915</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,19 +33973,19 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34150,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>454.5606621218849</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>606.5820696732821</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,28 +34447,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>618.3047484269334</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>638.0665277849414</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
         <v>157.2826706286436</v>
@@ -35106,13 +35108,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>77.54037261451916</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,13 +35743,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>302.4748895856766</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>108.4053175402704</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>207.12277740666</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>320.5852908091173</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>316.7192231475259</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>463.9858252288377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,28 +38095,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>479.7503686470593</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>506.7248157016081</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964908.555643832</v>
+        <v>2960895.945629838</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>192.0524966157174</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>328.49001099408</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.5968754185096</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494259</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
       <c r="X4" t="n">
-        <v>77.69702543883761</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>69.13498501318928</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>318.4070179429954</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
-        <v>37.09845285659713</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>328.9725371167045</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>84.22252973232901</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>262.2764898409463</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,16 +1378,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722633</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.445727774094323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>263.7048265736554</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -2058,10 +2058,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>99.65140663107616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>66.2562870115476</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.03048557919066</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>191.2560787872424</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>73.78417491007373</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>15.09910835322229</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>201.1906419534422</v>
+        <v>150.3341561773498</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>68.64373283592688</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>244.8607949506171</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>93.59472601529512</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>169.3382687475389</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1914.669427940023</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.706910999611</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389511</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939505</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136263</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520485</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520485</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176914</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176914</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915834</v>
+        <v>1904.487375535339</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940023</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.7821255545682</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8459426266613</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962276</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596502</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757121</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X4" t="n">
-        <v>752.5747046980983</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
-        <v>531.7821255545682</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.758282883553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>846.7957659431409</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>488.5300673363904</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3255.772503414029</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3049.794755798251</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3049.794755798251</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2718.73186845468</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2365.963213184566</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.497454923486</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.358122947674</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418.5780852590083</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>418.5780852590083</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>418.5780852590083</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>418.5780852590083</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>271.6881377610979</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>103.9853011358169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757121</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>639.3706644025384</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>418.5780852590083</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2291.674678112796</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1922.712161172384</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.446462565634</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3240.532559253283</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2987.002082527119</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2655.939195183548</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176918</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.274518176918</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4898,7 +4898,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>213.4020639300938</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>213.4020639300938</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>434.1946430736239</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>434.1946430736239</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.4020639300938</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
@@ -5041,25 +5041,25 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,28 +5275,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5357,28 +5357,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
         <v>402.7245934908938</v>
@@ -5475,13 +5475,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>939.3433030602412</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>718.550723916711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,7 +5746,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192548</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3160.179968880559</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2991.243785952652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>2841.127146540317</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>2693.214052957923</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2546.324105460013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2546.324105460013</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2404.612274302211</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4623.787448650995</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4334.712221995193</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>4080.027733789307</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3790.610563752346</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3562.621012854329</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3341.828433710799</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>2567.280686761779</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3164.65917438833</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>3792.257137942937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>4115.110757018135</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3825.693586981174</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3597.704036083157</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.911456939627</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>264.0500279773693</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>96.85392869224921</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>96.85392869224921</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6417,19 +6417,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1851.318825887154</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6460,31 +6460,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398595</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
         <v>489.9894131830887</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W31" t="n">
-        <v>1418.449741049605</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X31" t="n">
-        <v>1190.460190151587</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.3544215660705</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>612.4182386381636</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U34" t="n">
-        <v>1774.238209850466</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V34" t="n">
-        <v>1519.553721644579</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W34" t="n">
-        <v>1230.136551607618</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>1002.147000709601</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>781.3544215660705</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,16 +6970,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>809.0422355233313</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>640.1060525954244</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1508.097421288549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1218.680251251588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>990.6907003535711</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.6907003535711</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,22 +7727,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1329.698313085771</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.708762187754</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.1389255780005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>22.81817176293561</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>186.533067758168</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15.00954930701793</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.8014946027466</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>78.25894333073096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>94.92839560200173</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>143.6212754172145</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>271.4238899833687</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>84.99383243580195</v>
+        <v>135.8503182118943</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>217.5407415533173</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>7.276848373210868</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>73.65209508333271</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>117.1847295890521</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.609736506</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>2.34074832405895e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405272</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405263</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="H4" t="n">
         <v>16046.58397189197</v>
@@ -26444,13 +26444,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083972</v>
+        <v>-832389.9260083977</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191948</v>
+        <v>496354.8197191954</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191943</v>
+        <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333516</v>
+        <v>243145.6548789944</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407069</v>
+        <v>568558.1166863495</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.4959407067</v>
+        <v>568558.1166863495</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407069</v>
+        <v>568558.1166863499</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407069</v>
+        <v>568558.1166863495</v>
       </c>
       <c r="J6" t="n">
-        <v>351374.2935434293</v>
+        <v>351026.914289072</v>
       </c>
       <c r="K6" t="n">
-        <v>568905.4959407061</v>
+        <v>568558.1166863494</v>
       </c>
       <c r="L6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863497</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.468005195</v>
+        <v>483503.0887508377</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407067</v>
+        <v>568558.1166863496</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407065</v>
+        <v>568558.1166863495</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407066</v>
+        <v>568558.1166863499</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>190.6813450477632</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>26.19303062660293</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>228.2411428127269</v>
       </c>
       <c r="X4" t="n">
-        <v>148.0126299501995</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>40.0527767749866</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>67.83092071305816</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
-        <v>107.6565620577236</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>52.95783295555725</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.6954404072911</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.24650849564472</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.818470993273997e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.092207747706317e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32077,13 +32077,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>216.0947523943933</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32250,7 +32250,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
         <v>790.8204499236508</v>
@@ -32314,7 +32314,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>504.2882996232035</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>436.4492970000068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7190218511045</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.7358547888808</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>502.2268148619681</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>454.5606621218849</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,25 +34447,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>618.3047484269334</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>71.39556506237764</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>77.54037261451916</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
@@ -35962,7 +35962,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3138922088733</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>302.4748895856766</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>207.12277740666</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>359.6305704175236</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>320.5852908091173</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>316.7192231475259</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,25 +38095,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>479.7503686470593</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2960895.945629838</v>
+        <v>2962656.475932624</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8568226.843312068</v>
+        <v>8568226.843312066</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192.0524966157174</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851069</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494259</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>58.28185552386407</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>318.4070179429954</v>
+        <v>23.79925355567458</v>
       </c>
     </row>
     <row r="6">
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>335.2177016912315</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>84.22252973232901</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.0291980517616</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>3.006892987834567</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>73.78417491007373</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>150.3341561773498</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535339</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4470,67 +4470,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962293</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588486</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886962</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>862.0164446829692</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
         <v>862.0164446829692</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4612,7 +4612,7 @@
         <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600383</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477025</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653094</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4770,7 +4770,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4834,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3240.532559253283</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2987.002082527119</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2655.939195183548</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2303.170539913434</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2303.170539913434</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2303.170539913434</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -5020,46 +5020,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,37 +5746,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,7 +5825,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
         <v>95.58405025273905</v>
@@ -5889,58 +5889,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5968,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,7 +6062,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
         <v>95.58405025273905</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>264.0500279773693</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>96.85392869224921</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>96.85392869224921</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.9255961109956</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>78.25894333073096</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>143.6212754172145</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
@@ -26322,37 +26322,37 @@
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="F4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="F4" t="n">
-        <v>16046.58397189192</v>
-      </c>
       <c r="G4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189193</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26444,13 +26444,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083977</v>
+        <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191954</v>
+        <v>496354.819719195</v>
       </c>
       <c r="D6" t="n">
         <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>243145.6548789944</v>
+        <v>243458.2962079153</v>
       </c>
       <c r="F6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.758015271</v>
       </c>
       <c r="G6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="H6" t="n">
-        <v>568558.1166863499</v>
+        <v>568870.758015271</v>
       </c>
       <c r="I6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="J6" t="n">
-        <v>351026.914289072</v>
+        <v>351339.5556179935</v>
       </c>
       <c r="K6" t="n">
-        <v>568558.1166863494</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="L6" t="n">
-        <v>568558.1166863497</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="M6" t="n">
-        <v>483503.0887508377</v>
+        <v>483815.7300797591</v>
       </c>
       <c r="N6" t="n">
-        <v>568558.1166863496</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="O6" t="n">
-        <v>568558.1166863495</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="P6" t="n">
-        <v>568558.1166863499</v>
+        <v>568870.758015271</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>190.6813450477632</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>228.2411428127269</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.83092071305816</v>
+        <v>362.438685100379</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>47.51613997224911</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>119.6954404072911</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.268850791002158e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-9.092207747706317e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593834</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.544175081759</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795092</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367785</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
